--- a/controller.xlsx
+++ b/controller.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13680" windowHeight="12630"/>
+    <workbookView windowWidth="15450" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
-    <t>ALUop</t>
+    <t>aluOp</t>
   </si>
   <si>
     <t>BMuxOp</t>
   </si>
   <si>
-    <t>jumptype</t>
-  </si>
-  <si>
-    <t>resultsrc</t>
-  </si>
-  <si>
-    <t>memorymode</t>
-  </si>
-  <si>
-    <t>ALUresultsrc</t>
+    <t>jumpType</t>
+  </si>
+  <si>
+    <t>resultSrc</t>
+  </si>
+  <si>
+    <t>memoryMode</t>
+  </si>
+  <si>
+    <t>aluResultSrc</t>
   </si>
   <si>
     <t>regWriteClk</t>
@@ -106,6 +106,9 @@
     <t>LI</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -119,9 +122,6 @@
   </si>
   <si>
     <t>MFIH</t>
-  </si>
-  <si>
-    <t>111</t>
   </si>
   <si>
     <t>MFPC</t>
@@ -182,17 +182,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,14 +198,6 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,9 +217,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,22 +233,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,21 +243,6 @@
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,6 +259,45 @@
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,14 +318,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -344,6 +330,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -354,31 +347,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,19 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,115 +527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,11 +541,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,17 +597,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,183 +638,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1130,7 +1123,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1449,7 +1442,9 @@
       <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D14">
         <v>1</v>
       </c>
@@ -1463,7 +1458,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -1474,7 +1469,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -1486,7 +1481,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -1503,7 +1498,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -1515,7 +1510,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
@@ -1532,10 +1527,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1550,7 +1545,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -1564,7 +1559,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1579,7 +1574,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
@@ -1593,7 +1588,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1608,7 +1603,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
@@ -1622,7 +1617,7 @@
         <v>38</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1637,7 +1632,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
@@ -1651,7 +1646,7 @@
         <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1666,7 +1661,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I21" t="s">
         <v>12</v>
@@ -1680,7 +1675,7 @@
         <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>8</v>

--- a/controller.xlsx
+++ b/controller.xlsx
@@ -180,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -195,7 +195,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,7 +230,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,26 +251,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,45 +264,6 @@
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,7 +277,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,21 +300,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,25 +347,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,7 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,13 +485,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,55 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,67 +527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,17 +556,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,11 +609,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,24 +638,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -646,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,133 +658,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/controller.xlsx
+++ b/controller.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>aluOp</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>regWriteClk</t>
+  </si>
+  <si>
+    <t>memoryRead</t>
   </si>
   <si>
     <t>ADDIU</t>
@@ -180,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -195,28 +198,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,13 +226,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -267,25 +273,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,9 +302,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,7 +335,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,109 +350,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,73 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,34 +545,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,6 +579,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,21 +641,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -646,145 +649,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1120,10 +1123,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A22" sqref="$A22:$XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1132,9 +1135,10 @@
     <col min="7" max="7" width="13.25" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
     <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9">
+    <row r="1" spans="3:10">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1156,796 +1160,889 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2"/>
       <c r="I8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2"/>
       <c r="I9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2"/>
       <c r="I10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" s="2"/>
       <c r="I11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G13" s="2"/>
       <c r="I13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/controller.xlsx
+++ b/controller.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>aluOp</t>
   </si>
@@ -55,9 +55,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>ADDIU3</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
   </si>
   <si>
     <t>001</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>BEQZ</t>
@@ -185,8 +179,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -204,6 +198,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -212,8 +213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,23 +229,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,14 +261,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,15 +305,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,10 +328,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -350,31 +344,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,151 +512,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,6 +549,65 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,65 +635,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,133 +655,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,7 +1120,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="$A22:$XFD22"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1189,8 +1183,8 @@
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
+      <c r="I2">
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1201,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -1221,8 +1215,8 @@
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
-        <v>13</v>
+      <c r="I3">
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1233,7 +1227,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -1253,8 +1247,8 @@
       <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="s">
-        <v>13</v>
+      <c r="I4">
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1265,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1285,8 +1279,8 @@
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
-        <v>13</v>
+      <c r="I5">
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1297,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -1317,8 +1311,8 @@
       <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" t="s">
-        <v>13</v>
+      <c r="I6">
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1329,10 +1323,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1349,8 +1343,8 @@
       <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I7" t="s">
-        <v>13</v>
+      <c r="I7">
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1361,14 +1355,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>111</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="I8" t="s">
-        <v>22</v>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1379,14 +1387,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>111</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="I9" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1397,14 +1419,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>111</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="I10" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1415,14 +1451,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>111</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="I11" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1433,10 +1483,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1453,8 +1503,8 @@
       <c r="H12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I12" t="s">
-        <v>13</v>
+      <c r="I12">
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1465,14 +1515,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>111</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="I13" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1483,28 +1547,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
-        <v>13</v>
+      <c r="I14">
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1515,7 +1579,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -1527,7 +1591,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>12</v>
@@ -1535,8 +1599,8 @@
       <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I15" t="s">
-        <v>13</v>
+      <c r="I15">
+        <v>1</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1547,7 +1611,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -1559,7 +1623,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>12</v>
@@ -1567,8 +1631,8 @@
       <c r="H16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I16" t="s">
-        <v>13</v>
+      <c r="I16">
+        <v>1</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1579,10 +1643,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1597,10 +1661,10 @@
         <v>11</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1611,10 +1675,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1629,10 +1693,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1643,10 +1707,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1661,10 +1725,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1675,10 +1739,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1693,10 +1757,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1707,10 +1771,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1725,10 +1789,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1739,19 +1803,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I22" t="s">
-        <v>22</v>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1762,10 +1835,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1782,8 +1855,8 @@
       <c r="H23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I23" t="s">
-        <v>13</v>
+      <c r="I23">
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1794,10 +1867,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1814,8 +1887,8 @@
       <c r="H24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I24" t="s">
-        <v>13</v>
+      <c r="I24">
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1826,10 +1899,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1844,10 +1917,10 @@
         <v>11</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1858,10 +1931,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1876,10 +1949,10 @@
         <v>11</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1890,10 +1963,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1910,8 +1983,8 @@
       <c r="H27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I27" t="s">
-        <v>13</v>
+      <c r="I27">
+        <v>1</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1922,10 +1995,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1942,8 +2015,8 @@
       <c r="H28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I28" t="s">
-        <v>13</v>
+      <c r="I28">
+        <v>1</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1954,7 +2027,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
@@ -1969,13 +2042,13 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I29" t="s">
-        <v>22</v>
+      <c r="I29">
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1986,7 +2059,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>9</v>
@@ -2001,13 +2074,13 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I30" t="s">
-        <v>22</v>
+      <c r="I30">
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2018,7 +2091,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
@@ -2033,13 +2106,13 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I31" t="s">
-        <v>22</v>
+      <c r="I31">
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>

--- a/controller.xlsx
+++ b/controller.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdogemaru\Desktop\THINPAD\THCO-MIPS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="15450" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="78">
   <si>
     <t>aluOp</t>
   </si>
@@ -34,9 +39,6 @@
     <t>aluResultSrc</t>
   </si>
   <si>
-    <t>regWriteClk</t>
-  </si>
-  <si>
     <t>memoryRead</t>
   </si>
   <si>
@@ -170,19 +172,134 @@
   </si>
   <si>
     <t>SW_SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMuxOp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jumpType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000 normal jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 ryvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 imme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001 无条件跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010 等于0跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011 不等于0跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 跳转至Rx的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultSrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Alu计算结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 Ram读出的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AluresultSrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 alu计算结结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inputB</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 符号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00 是否为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memorymode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00 禁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,108 +308,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -300,236 +325,20 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -537,255 +346,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -798,62 +365,39 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1111,28 +655,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="5.625" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
+    <col min="13" max="13" width="17.625" customWidth="1"/>
+    <col min="14" max="14" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1152,36 +702,42 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1189,31 +745,37 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1221,31 +783,37 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1253,31 +821,34 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="N4" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1285,31 +856,34 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="N5" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1318,30 +892,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1349,13 +923,19 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>111</v>
@@ -1363,49 +943,55 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
       </c>
       <c r="C9">
         <v>111</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1413,63 +999,72 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="M9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>111</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
       </c>
       <c r="C11">
         <v>111</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1477,31 +1072,37 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="M11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1509,31 +1110,34 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="M12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>111</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1541,63 +1145,69 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="M13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="M14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1605,31 +1215,34 @@
       <c r="J15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="M15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1637,32 +1250,35 @@
       <c r="J16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="M16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I17">
         <v>1</v>
       </c>
@@ -1670,63 +1286,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I19">
         <v>1</v>
       </c>
@@ -1734,31 +1350,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I20">
         <v>1</v>
       </c>
@@ -1766,31 +1382,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I21">
         <v>1</v>
       </c>
@@ -1798,27 +1414,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -1830,30 +1446,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1862,30 +1478,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1894,31 +1510,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="I25">
         <v>1</v>
       </c>
@@ -1926,30 +1542,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1958,30 +1574,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1990,30 +1606,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2022,30 +1638,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2054,30 +1670,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2086,30 +1702,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2119,8 +1735,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/controller.xlsx
+++ b/controller.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdogemaru\Desktop\THINPAD\THCO-MIPS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="12630"/>
+    <workbookView windowWidth="22943" windowHeight="9527"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>aluOp</t>
   </si>
@@ -39,9 +34,18 @@
     <t>aluResultSrc</t>
   </si>
   <si>
+    <t>regWrite</t>
+  </si>
+  <si>
     <t>memoryRead</t>
   </si>
   <si>
+    <t>ResultSrc</t>
+  </si>
+  <si>
+    <t>AluresultSrc</t>
+  </si>
+  <si>
     <t>ADDIU</t>
   </si>
   <si>
@@ -57,192 +61,25 @@
     <t>10</t>
   </si>
   <si>
+    <t>1 Alu计算结果</t>
+  </si>
+  <si>
+    <t>10 alu计算结结果</t>
+  </si>
+  <si>
     <t>ADDIU3</t>
   </si>
   <si>
-    <t>ADDSP3</t>
-  </si>
-  <si>
-    <t>ADDSP</t>
-  </si>
-  <si>
-    <t>ADDU</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>BEQZ</t>
-  </si>
-  <si>
-    <t>BNEZ</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>BTEQZ</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>JR</t>
-  </si>
-  <si>
-    <t>LI</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>LW</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>LW_SP</t>
-  </si>
-  <si>
-    <t>MFIH</t>
-  </si>
-  <si>
-    <t>MFPC</t>
-  </si>
-  <si>
-    <t>MOVE</t>
-  </si>
-  <si>
-    <t>MTIH</t>
-  </si>
-  <si>
-    <t>MTSP</t>
-  </si>
-  <si>
-    <t>NOP</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>SLL</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>SLT</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>SLTI</t>
-  </si>
-  <si>
-    <t>SRA</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>SUBU</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>SW_RS</t>
-  </si>
-  <si>
-    <t>SW_SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMuxOp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jumpType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000 normal jump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 ryvalue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 imme</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001 无条件跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010 等于0跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011 不等于0跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 跳转至Rx的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResultSrc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 Alu计算结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0 Ram读出的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AluresultSrc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 alu计算结结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>regWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>11</t>
     </r>
     <r>
@@ -250,56 +87,182 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> inputB</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDSP3</t>
+  </si>
+  <si>
+    <t>00 是否为0</t>
+  </si>
+  <si>
+    <t>ADDSP</t>
   </si>
   <si>
     <t>01 符号位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00 是否为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDU</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMuxOp </t>
   </si>
   <si>
     <t>memorymode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>1 imme</t>
+  </si>
+  <si>
+    <t>00 禁用</t>
+  </si>
+  <si>
+    <t>BEQZ</t>
+  </si>
+  <si>
+    <t>0 ryvalue</t>
   </si>
   <si>
     <t>01写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNEZ</t>
+  </si>
+  <si>
+    <t>011</t>
   </si>
   <si>
     <t>10读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00 禁用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTEQZ</t>
   </si>
   <si>
     <t>11不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>000 normal jump</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>001 无条件跳转</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>010 等于0跳转</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>011 不等于0跳转</t>
+  </si>
+  <si>
+    <t>LW_SP</t>
+  </si>
+  <si>
+    <t>100 跳转至Rx的值</t>
+  </si>
+  <si>
+    <t>MFIH</t>
+  </si>
+  <si>
+    <t>MFPC</t>
+  </si>
+  <si>
+    <t>MOVE</t>
+  </si>
+  <si>
+    <t>MTIH</t>
+  </si>
+  <si>
+    <t>MTSP</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>SLL</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>SLT</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>SLTI</t>
+  </si>
+  <si>
+    <t>SRA</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>SUBU</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>SW_RS</t>
+  </si>
+  <si>
+    <t>SW_SP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,16 +271,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -325,20 +281,356 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -346,9 +638,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -362,42 +896,86 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -655,34 +1233,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="3" max="3" width="5.625" customWidth="1"/>
-    <col min="4" max="4" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="7.375" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="7.625" customWidth="1"/>
-    <col min="10" max="10" width="11.375" customWidth="1"/>
-    <col min="13" max="13" width="17.625" customWidth="1"/>
-    <col min="14" max="14" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="7.37962962962963" customWidth="1"/>
+    <col min="3" max="3" width="7.88888888888889" customWidth="1"/>
+    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="11.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="8.77777777777778" customWidth="1"/>
+    <col min="7" max="7" width="14.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="15.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="11.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="11.3796296296296" customWidth="1"/>
+    <col min="13" max="13" width="17.6296296296296" customWidth="1"/>
+    <col min="14" max="14" width="15.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:14">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -702,42 +1281,42 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -746,36 +1325,36 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -784,36 +1363,36 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -821,69 +1400,69 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N5" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -892,30 +1471,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -924,18 +1503,18 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>111</v>
@@ -943,14 +1522,14 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>66</v>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>67</v>
+      <c r="G8" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -962,18 +1541,18 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>111</v>
@@ -982,16 +1561,16 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>72</v>
+        <v>13</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1000,18 +1579,18 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>111</v>
@@ -1020,16 +1599,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>71</v>
+        <v>13</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1037,16 +1616,16 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>111</v>
@@ -1055,16 +1634,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>71</v>
+        <v>13</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1073,36 +1652,36 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1111,15 +1690,15 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C13">
         <v>111</v>
@@ -1128,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H13">
         <v>11</v>
@@ -1146,33 +1725,33 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1181,33 +1760,33 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1216,33 +1795,33 @@
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1251,33 +1830,33 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>55</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1286,62 +1865,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1</v>
-      </c>
-      <c r="J18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>57</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1350,30 +1929,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>58</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1382,30 +1961,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>59</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1414,27 +1993,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>28</v>
+        <v>60</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -1446,30 +2025,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1478,30 +2057,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1510,30 +2089,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1542,30 +2121,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1574,30 +2153,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1606,30 +2185,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1638,30 +2217,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1670,30 +2249,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1702,30 +2281,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1735,8 +2314,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/controller.xlsx
+++ b/controller.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9527"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,6 +135,9 @@
     <t>BEQZ</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>0 ryvalue</t>
   </si>
   <si>
@@ -175,9 +178,6 @@
   </si>
   <si>
     <t>111</t>
-  </si>
-  <si>
-    <t>11</t>
   </si>
   <si>
     <t>010 等于0跳转</t>
@@ -259,17 +259,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,30 +285,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,7 +309,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,18 +369,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -382,23 +392,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -413,14 +408,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -428,13 +415,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -445,187 +444,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,6 +635,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -650,15 +675,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,35 +694,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -722,17 +709,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,148 +740,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -896,28 +895,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1242,23 +1241,23 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="7.37962962962963" customWidth="1"/>
-    <col min="3" max="3" width="7.88888888888889" customWidth="1"/>
-    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="11.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="8.77777777777778" customWidth="1"/>
-    <col min="7" max="7" width="14.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="15.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="11.5555555555556" customWidth="1"/>
-    <col min="10" max="10" width="11.3796296296296" customWidth="1"/>
-    <col min="13" max="13" width="17.6296296296296" customWidth="1"/>
-    <col min="14" max="14" width="15.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="7.38333333333333" customWidth="1"/>
+    <col min="3" max="3" width="7.89166666666667" customWidth="1"/>
+    <col min="4" max="4" width="10.775" customWidth="1"/>
+    <col min="5" max="5" width="11.775" customWidth="1"/>
+    <col min="6" max="6" width="8.775" customWidth="1"/>
+    <col min="7" max="7" width="14.775" customWidth="1"/>
+    <col min="8" max="8" width="15.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="11.5583333333333" customWidth="1"/>
+    <col min="10" max="10" width="11.3833333333333" customWidth="1"/>
+    <col min="13" max="13" width="17.6333333333333" customWidth="1"/>
+    <col min="14" max="14" width="15.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:14">
@@ -1570,7 +1569,7 @@
         <v>13</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1579,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1590,7 +1589,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>111</v>
@@ -1599,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1608,7 +1607,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1617,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1625,7 +1624,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>111</v>
@@ -1643,7 +1642,7 @@
         <v>13</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1655,7 +1654,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1663,10 +1662,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1690,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1698,7 +1697,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>111</v>
@@ -1707,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1725,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1733,10 +1732,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1751,7 +1750,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1841,7 +1840,7 @@
         <v>55</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1856,7 +1855,7 @@
         <v>13</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1873,7 +1872,7 @@
         <v>56</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="6">
         <v>0</v>
@@ -1888,7 +1887,7 @@
         <v>13</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I18" s="6">
         <v>1</v>
@@ -1905,7 +1904,7 @@
         <v>57</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1920,7 +1919,7 @@
         <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1937,7 +1936,7 @@
         <v>58</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1952,7 +1951,7 @@
         <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1969,7 +1968,7 @@
         <v>59</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1984,7 +1983,7 @@
         <v>13</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2001,7 +2000,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2033,7 +2032,7 @@
         <v>61</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23">
         <v>0</v>
